--- a/data/liga.xlsx
+++ b/data/liga.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOPORTE REGIONAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0AE319-C866-4550-A274-87A380864C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB54D3B-4232-4D6F-83DA-46617B47711E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>team</t>
   </si>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +631,7 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -711,6 +711,24 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
       <c r="I5" s="2"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
@@ -812,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/data/liga.xlsx
+++ b/data/liga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOPORTE REGIONAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB54D3B-4232-4D6F-83DA-46617B47711E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFFFEE0-533E-4B21-BA07-D08B6610BC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,10 +643,10 @@
         <v>19</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -672,10 +672,10 @@
         <v>21</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -701,10 +701,10 @@
         <v>20</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -779,7 +779,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +807,7 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/liga.xlsx
+++ b/data/liga.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOPORTE REGIONAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFFFEE0-533E-4B21-BA07-D08B6610BC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66BF4B8-3B28-48B3-9AFA-9DED857657DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>team</t>
   </si>
@@ -66,12 +66,6 @@
     <t>video_url</t>
   </si>
   <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
     <t>player</t>
   </si>
   <si>
@@ -123,19 +117,13 @@
     <t>Biri cai (7)</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/HqGM3J35Kyk</t>
-  </si>
-  <si>
     <t>Rolitas</t>
   </si>
   <si>
-    <t>2025-08-80</t>
-  </si>
-  <si>
-    <t>2025-08-81</t>
-  </si>
-  <si>
-    <t>2025-08-82</t>
+    <t>Esteban Cordero</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/VQZr2vG5k_I</t>
   </si>
 </sst>
 </file>
@@ -532,15 +520,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -550,25 +538,33 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B6">
+    <sortCondition ref="A2:A6"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -577,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -588,7 +584,7 @@
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="46.140625" bestFit="1" customWidth="1"/>
@@ -624,111 +620,87 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
+      <c r="A2" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="I5" s="2"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
@@ -779,7 +751,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,21 +762,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -812,10 +784,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -831,7 +803,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,31 +814,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>29</v>

--- a/data/liga.xlsx
+++ b/data/liga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOPORTE REGIONAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66BF4B8-3B28-48B3-9AFA-9DED857657DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D580A7-889D-4469-8059-6A3145444C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>team</t>
   </si>
@@ -84,9 +84,6 @@
     <t>FGJ</t>
   </si>
   <si>
-    <t>LA 40</t>
-  </si>
-  <si>
     <t>Maria Reina</t>
   </si>
   <si>
@@ -124,6 +121,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/embed/VQZr2vG5k_I</t>
+  </si>
+  <si>
+    <t>Francisco García Jiménez</t>
+  </si>
+  <si>
+    <t>Fe y Alegría</t>
   </si>
 </sst>
 </file>
@@ -523,12 +526,12 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -538,27 +541,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -574,7 +577,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +587,7 @@
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="46.140625" bestFit="1" customWidth="1"/>
@@ -621,22 +624,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -645,27 +648,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -674,27 +677,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -773,10 +776,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -784,7 +787,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -825,23 +828,23 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/liga.xlsx
+++ b/data/liga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOPORTE REGIONAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D580A7-889D-4469-8059-6A3145444C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EEF391-41FC-4A6A-90EE-C3CD7CD96F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>team</t>
   </si>
@@ -81,16 +81,10 @@
     <t>Golazo!</t>
   </si>
   <si>
-    <t>FGJ</t>
-  </si>
-  <si>
     <t>Maria Reina</t>
   </si>
   <si>
     <t>Tepeyac</t>
-  </si>
-  <si>
-    <t>La 40</t>
   </si>
   <si>
     <t>https://www.youtube.com/embed/hy2TN9mRjRU</t>
@@ -541,27 +535,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -624,22 +618,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -648,27 +642,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -677,27 +671,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -754,13 +748,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -776,24 +771,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -828,23 +823,23 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
